--- a/CPUE_Los_Lagos_MaC/estandarizacion_segun_informe/MaC_2021/CPUE_MODELOS.xlsx
+++ b/CPUE_Los_Lagos_MaC/estandarizacion_segun_informe/MaC_2021/CPUE_MODELOS.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macristina.perez\Documents\Recursos\Sardina Austral\CPUE_Los_Lagos_MaC\estandarizacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajosezunigabasualto/MJZ/CTP2021/SARDINA_AUSTRAL LOS LAGOS/INFORME_FINAL/CPUE_Los_Lagos_MaC/estandarizacion_segun_informe/MaC_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D1309A-5D2F-4320-BC49-D2CFA9ACC180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDF0F3E-AAA6-DD43-9659-D284A2A0A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="500" windowWidth="25940" windowHeight="22640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_nuevo" sheetId="6" r:id="rId1"/>
     <sheet name="2021_viejo" sheetId="8" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="51">
   <si>
     <t>Mod2</t>
   </si>
@@ -174,6 +183,12 @@
   <si>
     <t>Zona:Año</t>
   </si>
+  <si>
+    <t>tweedie</t>
+  </si>
+  <si>
+    <t>tweddie_inter</t>
+  </si>
 </sst>
 </file>
 
@@ -308,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -383,6 +398,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +419,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -918,7 +934,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -956,7 +972,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="537977168"/>
@@ -1029,7 +1045,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1067,7 +1083,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="537983072"/>
@@ -1119,7 +1135,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1151,7 +1167,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1165,7 +1181,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1416,7 +1432,7 @@
             <c:numRef>
               <c:f>'2021_viejo'!$P$18:$P$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>23.609811000000001</c:v>
@@ -1686,7 +1702,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1724,7 +1740,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="537977168"/>
@@ -1797,7 +1813,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1835,7 +1851,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="537983072"/>
@@ -1887,7 +1903,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1919,7 +1935,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1933,7 +1949,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2045,7 +2061,7 @@
             <c:numRef>
               <c:f>'2021_viejo'!$P$18:$P$31</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>23.609811000000001</c:v>
@@ -2315,7 +2331,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2353,7 +2369,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="537977168"/>
@@ -2426,11 +2442,11 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CL"/>
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2464,7 +2480,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="537983072"/>
@@ -2516,7 +2532,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2548,7 +2564,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4641,25 +4657,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A4C57B-FB27-4568-9744-4C91D1A6C511}">
-  <dimension ref="A2:P20"/>
+  <dimension ref="A2:P16"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="31.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -4668,7 +4684,7 @@
       </c>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
@@ -4684,7 +4700,7 @@
       <c r="K4" s="16"/>
       <c r="L4" s="17"/>
     </row>
-    <row r="5" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="11" t="s">
@@ -4708,7 +4724,7 @@
       <c r="K5" s="17"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4725,7 +4741,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
         <v>5</v>
       </c>
@@ -4754,7 +4770,7 @@
         <v>10.85724865765599</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
@@ -4782,7 +4798,7 @@
       <c r="M8" s="1"/>
       <c r="P8" s="15"/>
     </row>
-    <row r="9" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
@@ -4808,7 +4824,7 @@
       <c r="K9" s="17"/>
       <c r="L9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>20</v>
       </c>
@@ -4834,7 +4850,7 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
-    <row r="11" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
@@ -4850,7 +4866,7 @@
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4867,7 +4883,7 @@
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
         <v>5</v>
       </c>
@@ -4898,7 +4914,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
@@ -4926,7 +4942,7 @@
       <c r="M14" s="20"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
@@ -4954,7 +4970,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="7"/>
       <c r="D16" s="5" t="s">
         <v>14</v>
@@ -4983,10 +4999,6 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4994,25 +5006,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51440F87-4FA9-4B61-88E6-F18AA9439D18}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E23" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W55" sqref="W55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="31.453125" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
@@ -5030,7 +5042,7 @@
       </c>
       <c r="L2" s="17"/>
     </row>
-    <row r="3" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="11" t="s">
@@ -5054,7 +5066,7 @@
       <c r="K3" s="17"/>
       <c r="L3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
@@ -5070,7 +5082,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
@@ -5098,7 +5110,7 @@
         <v>11.473586127745646</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
@@ -5125,7 +5137,7 @@
       <c r="M6" s="1"/>
       <c r="P6" s="15"/>
     </row>
-    <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
@@ -5150,7 +5162,7 @@
       </c>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
@@ -5175,7 +5187,7 @@
       </c>
       <c r="K8" s="16"/>
     </row>
-    <row r="9" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="8" t="s">
         <v>22</v>
       </c>
@@ -5190,7 +5202,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
@@ -5206,7 +5218,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>29</v>
       </c>
@@ -5236,7 +5248,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
@@ -5257,13 +5269,13 @@
       </c>
       <c r="J12" s="13">
         <f t="shared" ref="J12:J14" si="1">(F12/$H$10)*100</f>
-        <v>2.870056497175141</v>
+        <v>2.8700564971751414</v>
       </c>
       <c r="K12" s="1"/>
       <c r="M12" s="20"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
         <v>19</v>
       </c>
@@ -5290,7 +5302,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="7"/>
       <c r="D14" s="5" t="s">
         <v>20</v>
@@ -5318,7 +5330,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
@@ -5332,7 +5344,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
@@ -5346,8 +5358,14 @@
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
+      <c r="O16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="17" spans="3:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:33" ht="17" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
@@ -5386,7 +5404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="3:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:33" ht="17" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>18</v>
       </c>
@@ -5407,7 +5425,7 @@
       </c>
       <c r="J18" s="13">
         <f t="shared" ref="J18:J22" si="2">(F18/$H$10)*100</f>
-        <v>2.870056497175141</v>
+        <v>2.8700564971751414</v>
       </c>
       <c r="K18" s="19">
         <f>J18+J19+J20+J21+J17+J22</f>
@@ -5422,7 +5440,7 @@
       <c r="O18">
         <v>26.414380000000001</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="32">
         <v>23.609811000000001</v>
       </c>
       <c r="Q18">
@@ -5431,8 +5449,50 @@
       <c r="R18">
         <v>26.629799999999999</v>
       </c>
+      <c r="T18" s="32">
+        <v>26.414380000000001</v>
+      </c>
+      <c r="U18" s="32">
+        <v>25.859780000000001</v>
+      </c>
+      <c r="V18" s="32">
+        <v>30.499749999999999</v>
+      </c>
+      <c r="W18" s="32">
+        <v>20.238620000000001</v>
+      </c>
+      <c r="X18" s="32">
+        <v>19.24738</v>
+      </c>
+      <c r="Y18" s="32">
+        <v>13.572369999999999</v>
+      </c>
+      <c r="Z18" s="32">
+        <v>21.626989999999999</v>
+      </c>
+      <c r="AA18" s="32">
+        <v>29.465309999999999</v>
+      </c>
+      <c r="AB18" s="32">
+        <v>26.35248</v>
+      </c>
+      <c r="AC18" s="32">
+        <v>21.580549999999999</v>
+      </c>
+      <c r="AD18" s="32">
+        <v>14.615769999999999</v>
+      </c>
+      <c r="AE18" s="32">
+        <v>10.130269999999999</v>
+      </c>
+      <c r="AF18" s="32">
+        <v>14.107609999999999</v>
+      </c>
+      <c r="AG18" s="32">
+        <v>28.927869999999999</v>
+      </c>
     </row>
-    <row r="19" spans="3:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:33" ht="17" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>19</v>
       </c>
@@ -5464,7 +5524,7 @@
       <c r="O19">
         <v>25.859780000000001</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="32">
         <v>21.645078999999999</v>
       </c>
       <c r="Q19">
@@ -5473,8 +5533,50 @@
       <c r="R19">
         <v>25.977409999999999</v>
       </c>
+      <c r="T19" s="32">
+        <v>23.609811000000001</v>
+      </c>
+      <c r="U19" s="32">
+        <v>21.645078999999999</v>
+      </c>
+      <c r="V19" s="32">
+        <v>28.112324999999998</v>
+      </c>
+      <c r="W19" s="32">
+        <v>19.082077999999999</v>
+      </c>
+      <c r="X19" s="32">
+        <v>16.272248000000001</v>
+      </c>
+      <c r="Y19" s="32">
+        <v>13.711608</v>
+      </c>
+      <c r="Z19" s="32">
+        <v>35.572243999999998</v>
+      </c>
+      <c r="AA19" s="32">
+        <v>27.719045000000001</v>
+      </c>
+      <c r="AB19" s="32">
+        <v>23.066724000000001</v>
+      </c>
+      <c r="AC19" s="32">
+        <v>24.023015999999998</v>
+      </c>
+      <c r="AD19" s="32">
+        <v>10.826228</v>
+      </c>
+      <c r="AE19" s="32">
+        <v>10.179448000000001</v>
+      </c>
+      <c r="AF19" s="32">
+        <v>8.6036920000000006</v>
+      </c>
+      <c r="AG19" s="32">
+        <v>41.401040000000002</v>
+      </c>
     </row>
-    <row r="20" spans="3:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:33" ht="17" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>20</v>
       </c>
@@ -5506,7 +5608,7 @@
       <c r="O20">
         <v>30.499749999999999</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="32">
         <v>28.112324999999998</v>
       </c>
       <c r="Q20">
@@ -5516,7 +5618,7 @@
         <v>30.668710000000001</v>
       </c>
     </row>
-    <row r="21" spans="3:18" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:33" ht="17" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
@@ -5548,7 +5650,7 @@
       <c r="O21">
         <v>20.238620000000001</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="32">
         <v>19.082077999999999</v>
       </c>
       <c r="Q21">
@@ -5558,7 +5660,7 @@
         <v>20.67164</v>
       </c>
     </row>
-    <row r="22" spans="3:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:33" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="28"/>
       <c r="D22" s="29" t="s">
         <v>31</v>
@@ -5591,7 +5693,7 @@
       <c r="O22">
         <v>19.24738</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="32">
         <v>16.272248000000001</v>
       </c>
       <c r="Q22">
@@ -5601,7 +5703,7 @@
         <v>19.389679999999998</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="M23">
         <v>2012</v>
       </c>
@@ -5611,7 +5713,7 @@
       <c r="O23">
         <v>13.572369999999999</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="32">
         <v>13.711608</v>
       </c>
       <c r="Q23">
@@ -5621,7 +5723,7 @@
         <v>13.682969999999999</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="M24">
         <v>2013</v>
       </c>
@@ -5631,7 +5733,7 @@
       <c r="O24">
         <v>21.626989999999999</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="32">
         <v>35.572243999999998</v>
       </c>
       <c r="Q24">
@@ -5641,7 +5743,7 @@
         <v>22.875920000000001</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="M25">
         <v>2014</v>
       </c>
@@ -5651,7 +5753,7 @@
       <c r="O25">
         <v>29.465309999999999</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="32">
         <v>27.719045000000001</v>
       </c>
       <c r="Q25">
@@ -5661,7 +5763,7 @@
         <v>30.584219999999998</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="M26">
         <v>2015</v>
       </c>
@@ -5671,7 +5773,7 @@
       <c r="O26">
         <v>26.35248</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="32">
         <v>23.066724000000001</v>
       </c>
       <c r="Q26">
@@ -5681,7 +5783,7 @@
         <v>26.094570000000001</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="M27">
         <v>2016</v>
       </c>
@@ -5691,7 +5793,7 @@
       <c r="O27">
         <v>21.580549999999999</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="32">
         <v>24.023015999999998</v>
       </c>
       <c r="Q27">
@@ -5701,7 +5803,7 @@
         <v>22.39442</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="M28">
         <v>2017</v>
       </c>
@@ -5711,7 +5813,7 @@
       <c r="O28">
         <v>14.615769999999999</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="32">
         <v>10.826228</v>
       </c>
       <c r="Q28">
@@ -5721,7 +5823,7 @@
         <v>14.371359999999999</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="M29">
         <v>2018</v>
       </c>
@@ -5731,7 +5833,7 @@
       <c r="O29">
         <v>10.130269999999999</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="32">
         <v>10.179448000000001</v>
       </c>
       <c r="Q29">
@@ -5741,7 +5843,7 @@
         <v>10.47425</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="M30">
         <v>2019</v>
       </c>
@@ -5751,7 +5853,7 @@
       <c r="O30">
         <v>14.107609999999999</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="32">
         <v>8.6036920000000006</v>
       </c>
       <c r="Q30">
@@ -5761,14 +5863,14 @@
         <v>14.83639</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="M31">
         <v>2020</v>
       </c>
       <c r="O31">
         <v>28.927869999999999</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="32">
         <v>41.401040000000002</v>
       </c>
       <c r="Q31">
@@ -5778,8 +5880,8 @@
         <v>29.66262</v>
       </c>
     </row>
-    <row r="47" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="48" spans="7:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="7:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="7:10" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G48" s="22" t="s">
         <v>36</v>
       </c>
@@ -5793,7 +5895,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G49" s="24" t="s">
         <v>37</v>
       </c>
@@ -5807,7 +5909,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G50" s="24" t="s">
         <v>38</v>
       </c>
@@ -5821,7 +5923,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G51" s="24" t="s">
         <v>46</v>
       </c>
@@ -5835,7 +5937,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G52" s="24" t="s">
         <v>39</v>
       </c>
@@ -5849,7 +5951,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G53" s="24" t="s">
         <v>47</v>
       </c>
@@ -5863,7 +5965,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="7:10" x14ac:dyDescent="0.2">
       <c r="G54" s="24" t="s">
         <v>48</v>
       </c>
@@ -5877,7 +5979,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="7:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G55" s="27" t="s">
         <v>41</v>
       </c>
@@ -5891,7 +5993,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="56" spans="7:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="7:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G56" s="27" t="s">
         <v>42</v>
       </c>
